--- a/biology/Zoologie/Azuré_de_la_minette/Azuré_de_la_minette.xlsx
+++ b/biology/Zoologie/Azuré_de_la_minette/Azuré_de_la_minette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_minette</t>
+          <t>Azuré_de_la_minette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cupido decoloratus
 L’Azuré de la minette  ou Azuré de Staudinger (Cupido decoloratus) est une espèce de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_minette</t>
+          <t>Azuré_de_la_minette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Cupido decoloratus a été nommé par Otto Staudinger en 1886.
-Synonymes : Everes decoloratus (Staudinger, 1886), Lycaena decolorata (Staudinger, 1886), Papilio sebrus (Hübner, 1823), Polyommatus saportae (Duponchel, 1832)[1].
-Noms vernaculaires
-L’Azuré de la minette ou Azuré de Staudinger se nomme en anglais Eastern Short-tailed Blue.
+Synonymes : Everes decoloratus (Staudinger, 1886), Lycaena decolorata (Staudinger, 1886), Papilio sebrus (Hübner, 1823), Polyommatus saportae (Duponchel, 1832).
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_minette</t>
+          <t>Azuré_de_la_minette</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,15 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un petit papillon qui présente un dimorphisme sexuel, le dessus du mâle est bleu terne bordé de gris, celui de la femelle est marron, les deux avec une frange blanche.
-Le revers est gris pâle un peu suffusé de bleu et orné de lignes de petits points noirs.
-Espèce proche
-L'Azuré de la faucille présent dans une partie de son aire de répartition lui ressemble.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Azuré de la minette ou Azuré de Staudinger se nomme en anglais Eastern Short-tailed Blue.
 </t>
         </is>
       </c>
@@ -562,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_minette</t>
+          <t>Azuré_de_la_minette</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,15 +592,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en trois générations, de mai à septembre[2].
-Plantes hôtes
-Sa plante hôte est Medicago lupulina[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit papillon qui présente un dimorphisme sexuel, le dessus du mâle est bleu terne bordé de gris, celui de la femelle est marron, les deux avec une frange blanche.
+Le revers est gris pâle un peu suffusé de bleu et orné de lignes de petits points noirs.
 </t>
         </is>
       </c>
@@ -596,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_minette</t>
+          <t>Azuré_de_la_minette</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,16 +626,199 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèce proche</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Azuré de la faucille présent dans une partie de son aire de répartition lui ressemble.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_minette</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_minette</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en trois générations, de mai à septembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_minette</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_minette</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa plante hôte est Medicago lupulina.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_minette</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_minette</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans le sud-est de l'Europe (Autriche, Hongrie, Slovénie, Macédoine, Roumanie, Bulgarie, très localement dans le nord de la Grèce) et en Ukraine, sud de la Russie et Turquie[1],[2].
-Biotope
-Son habitat est constitué de prairies fleuries jusqu'à 1 000 m..
-Protection
-Il est inscrit sur le livre rouge des papillons européens[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans le sud-est de l'Europe (Autriche, Hongrie, Slovénie, Macédoine, Roumanie, Bulgarie, très localement dans le nord de la Grèce) et en Ukraine, sud de la Russie et Turquie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_minette</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_minette</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est constitué de prairies fleuries jusqu'à 1 000 m..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_minette</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_minette</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est inscrit sur le livre rouge des papillons européens.
 </t>
         </is>
       </c>
